--- a/biology/Zoologie/Arzecla_taminella/Arzecla_taminella.xlsx
+++ b/biology/Zoologie/Arzecla_taminella/Arzecla_taminella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arzecla taminella est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, sous-famille des Theclinae et du genre Arzecla.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arzecla taminella a été décrit par William Schaus en 1902 sous le protonyme de Thecla taminella[1] sur la base d'un spécimen collecté à Castro dans l'État de Paraná au Brésil.
-Noms vernaculaires
-Arzecla taminella est communément appelé Taminella Groundstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arzecla taminella a été décrit par William Schaus en 1902 sous le protonyme de Thecla taminella sur la base d'un spécimen collecté à Castro dans l'État de Paraná au Brésil.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arzecla taminella est un petit papillon (20 mm d'envergure[1]) qui possède à chaque aile postérieure deux fines queues. Le dessus est beige. Le revers présente de larges bandes, beige, jaune crème, beige et beige clair avec une ligne marginale de chevrons beige et aux ailes antérieures deux ocelles dont un anal.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arzecla taminella est communément appelé Taminella Groundstreak en anglais.
 </t>
         </is>
       </c>
@@ -572,10 +590,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arzecla taminella est un petit papillon (20 mm d'envergure) qui possède à chaque aile postérieure deux fines queues. Le dessus est beige. Le revers présente de larges bandes, beige, jaune crème, beige et beige clair avec une ligne marginale de chevrons beige et aux ailes antérieures deux ocelles dont un anal.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,15 +623,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Arzecla taminella est présent du Mexique, au Brésil, au Pérou et en Guyane[2],[3].
-Biotope</t>
-        </is>
-      </c>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,12 +651,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Protection</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pas de statut de protection particulier.
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arzecla taminella est présent du Mexique, au Brésil, au Pérou et en Guyane,.
 </t>
         </is>
       </c>
@@ -660,10 +684,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arzecla_taminella</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arzecla_taminella</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) William Schaus, « Descriptions of new American butterflies », Proceedings of the United States National Museum, Washington, Inconnu, vol. 24, no 1262,‎ 1902, p. 383–460 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.1262.383, lire en ligne)</t>
         </is>
